--- a/localfile/N1_08_Traffic Count and Revenue.xlsx
+++ b/localfile/N1_08_Traffic Count and Revenue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\NYSThruway\localfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C7FACA-C07F-4216-AADB-6F5C9C042018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E88965-A1B1-4909-9E57-EA2D121928D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024" activeTab="2" xr2:uid="{77777D25-F4E6-4ACC-B1A1-0B464B1E540D}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9024" activeTab="2" xr2:uid="{77777D25-F4E6-4ACC-B1A1-0B464B1E540D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue LastYear" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="42">
   <si>
     <t>NEW YORK STATE THRUWAY AUTHORITY</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
 </sst>
 </file>
@@ -513,44 +516,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1705912F-E2C1-4CC8-B79D-FA9667449554}">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43709</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q5" s="2">
         <v>44091</v>
       </c>
       <c r="R5" s="2">
         <v>44092</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="2">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q6" t="s">
         <v>38</v>
       </c>
       <c r="R6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -558,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -566,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -574,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -582,7 +591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -590,7 +599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -598,7 +607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -606,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -614,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -622,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -630,7 +639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -643,8 +652,11 @@
       <c r="R17">
         <v>6145</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17">
+        <v>6478.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -652,7 +664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -660,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -668,7 +680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -681,8 +693,11 @@
       <c r="R21">
         <v>250.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21">
+        <v>269.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -695,8 +710,11 @@
       <c r="R22">
         <v>198</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -709,8 +727,11 @@
       <c r="R23">
         <v>909.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23">
+        <v>998.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -718,7 +739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -731,8 +752,11 @@
       <c r="R25">
         <v>150</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -740,7 +764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -753,8 +777,11 @@
       <c r="R27">
         <v>161</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S27">
+        <v>132.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -762,7 +789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -775,8 +802,11 @@
       <c r="R29">
         <v>7813.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S29">
+        <v>8306.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -789,8 +819,11 @@
       <c r="R30">
         <v>3183.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S30">
+        <v>3128.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -798,7 +831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -806,7 +839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -819,8 +852,11 @@
       <c r="R33">
         <v>40.659999999999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33">
+        <v>50.29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -833,8 +869,11 @@
       <c r="R34">
         <v>2.52</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -842,7 +881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -850,7 +889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -863,8 +902,11 @@
       <c r="R37">
         <v>37616.15</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37">
+        <v>38393.980000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -877,8 +919,11 @@
       <c r="R38">
         <v>20.58</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S38">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -891,16 +936,22 @@
       <c r="R39">
         <v>22.12</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39">
+        <v>23.78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -908,7 +959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -916,7 +967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -929,8 +980,11 @@
       <c r="R43">
         <v>2325.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S43">
+        <v>2259.1999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -943,8 +997,11 @@
       <c r="R44">
         <v>1519.37</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S44">
+        <v>1504.83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -957,8 +1014,11 @@
       <c r="R45">
         <v>901.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S45">
+        <v>706.65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -971,8 +1031,11 @@
       <c r="R46">
         <v>3232.84</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S46">
+        <v>2944.16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -985,8 +1048,11 @@
       <c r="R47">
         <v>1417.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S47">
+        <v>1466.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -999,8 +1065,11 @@
       <c r="R48">
         <v>23.75</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S48">
+        <v>38.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1013,8 +1082,11 @@
       <c r="R49">
         <v>133</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S49">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1027,8 +1099,11 @@
       <c r="R50">
         <v>10.92</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S50">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1041,8 +1116,11 @@
       <c r="R51">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1050,7 +1128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1063,8 +1141,11 @@
       <c r="R53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1080,7 +1161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1088,7 +1169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1101,8 +1182,11 @@
       <c r="R57">
         <v>50453.21</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S57">
+        <v>50677.26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1115,8 +1199,11 @@
       <c r="R58">
         <v>186.83</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S58">
+        <v>164.22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -1124,7 +1211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -1137,8 +1224,11 @@
       <c r="R60">
         <v>4.9800000000000004</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S60">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -1151,8 +1241,11 @@
       <c r="R61">
         <v>387.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S61">
+        <v>421.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -1165,8 +1258,11 @@
       <c r="R62">
         <v>1255.4100000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S62">
+        <v>1276.29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -1179,8 +1275,11 @@
       <c r="R63">
         <v>364.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S63">
+        <v>347.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -1193,8 +1292,11 @@
       <c r="R64">
         <v>2246.2399999999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S64">
+        <v>2197.7600000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -1207,8 +1309,11 @@
       <c r="R65">
         <v>1095.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S65">
+        <v>976.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -1221,8 +1326,11 @@
       <c r="R66">
         <v>237.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S66">
+        <v>242.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -1235,8 +1343,11 @@
       <c r="R67">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S67">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -1249,8 +1360,11 @@
       <c r="R68">
         <v>16.38</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S68">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -1261,7 +1375,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -1274,8 +1388,11 @@
       <c r="R70">
         <v>5854.74</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S70">
+        <v>5705.42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -1288,8 +1405,11 @@
       <c r="R71">
         <v>60499.11</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S71">
+        <v>64688.93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -1302,8 +1422,11 @@
       <c r="R72">
         <v>3183.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S72">
+        <v>3128.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -1311,7 +1434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -1319,7 +1442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -1332,8 +1455,11 @@
       <c r="R75">
         <v>44038.84</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S75">
+        <v>45144.15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -1346,8 +1472,11 @@
       <c r="R76">
         <v>16899.46</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S76">
+        <v>16416.38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -1360,8 +1489,11 @@
       <c r="R77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -1373,6 +1505,9 @@
       </c>
       <c r="R78">
         <v>64121.7</v>
+      </c>
+      <c r="S78">
+        <v>64688.93</v>
       </c>
     </row>
   </sheetData>
@@ -1382,44 +1517,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F547EC7-72A7-4409-9170-9B27F0CF1CF6}">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43709</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q5" s="2">
         <v>44091</v>
       </c>
       <c r="R5" s="2">
         <v>44092</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="2">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q6" t="s">
         <v>38</v>
       </c>
       <c r="R6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1427,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1435,7 +1576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1443,7 +1584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1451,7 +1592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1459,7 +1600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1467,7 +1608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1475,7 +1616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1483,7 +1624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1491,7 +1632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1499,7 +1640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1512,8 +1653,11 @@
       <c r="R17">
         <v>4916</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1521,7 +1665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1529,7 +1673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1537,7 +1681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1550,8 +1694,11 @@
       <c r="R21">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1564,8 +1711,11 @@
       <c r="R22">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1578,8 +1728,11 @@
       <c r="R23">
         <v>214</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1587,7 +1740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1600,8 +1753,11 @@
       <c r="R25">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1609,7 +1765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1622,8 +1778,11 @@
       <c r="R27">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1631,7 +1790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1644,8 +1803,11 @@
       <c r="R29">
         <v>5345</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S29">
+        <v>5654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1658,8 +1820,11 @@
       <c r="R30">
         <v>5788</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S30">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1667,7 +1832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1675,7 +1840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1688,8 +1853,11 @@
       <c r="R33">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1702,8 +1870,11 @@
       <c r="R34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1711,7 +1882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1719,7 +1890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1732,8 +1903,11 @@
       <c r="R37">
         <v>31351</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37">
+        <v>31994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1746,8 +1920,11 @@
       <c r="R38">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1760,16 +1937,22 @@
       <c r="R39">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1777,7 +1960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1785,7 +1968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1798,8 +1981,11 @@
       <c r="R43">
         <v>1208</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S43">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1812,8 +1998,11 @@
       <c r="R44">
         <v>575</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S44">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1826,8 +2015,11 @@
       <c r="R45">
         <v>314</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1840,8 +2032,11 @@
       <c r="R46">
         <v>779</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S46">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1854,8 +2049,11 @@
       <c r="R47">
         <v>405</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S47">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1868,8 +2066,11 @@
       <c r="R48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1882,8 +2083,11 @@
       <c r="R49">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S49">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1896,8 +2100,11 @@
       <c r="R50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1910,8 +2117,11 @@
       <c r="R51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1919,7 +2129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1932,8 +2142,11 @@
       <c r="R53">
         <v>204</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S53">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -1941,7 +2154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1949,7 +2162,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1957,7 +2170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1970,8 +2183,11 @@
       <c r="R57">
         <v>40739</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S57">
+        <v>41113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1984,8 +2200,11 @@
       <c r="R58">
         <v>157</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S58">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -1993,7 +2212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -2006,8 +2225,11 @@
       <c r="R60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -2020,8 +2242,11 @@
       <c r="R61">
         <v>204</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S61">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -2034,8 +2259,11 @@
       <c r="R62">
         <v>481</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S62">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -2048,8 +2276,11 @@
       <c r="R63">
         <v>128</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S63">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -2062,8 +2293,11 @@
       <c r="R64">
         <v>556</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S64">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -2076,8 +2310,11 @@
       <c r="R65">
         <v>313</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S65">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -2090,8 +2327,11 @@
       <c r="R66">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S66">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -2104,8 +2344,11 @@
       <c r="R67">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -2118,8 +2361,11 @@
       <c r="R68">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -2130,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -2143,8 +2389,11 @@
       <c r="R70">
         <v>1912</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S70">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -2157,8 +2406,11 @@
       <c r="R71">
         <v>44598</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S71">
+        <v>48635</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -2171,8 +2423,11 @@
       <c r="R72">
         <v>5788</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S72">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -2180,7 +2435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -2188,7 +2443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -2201,8 +2456,11 @@
       <c r="R75">
         <v>36496</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S75">
+        <v>37399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -2215,8 +2473,11 @@
       <c r="R76">
         <v>5508</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S76">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -2229,8 +2490,11 @@
       <c r="R77">
         <v>204</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S77">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -2242,6 +2506,9 @@
       </c>
       <c r="R78">
         <v>47996</v>
+      </c>
+      <c r="S78">
+        <v>48635</v>
       </c>
     </row>
   </sheetData>
@@ -2251,28 +2518,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD58DEC2-34A0-44BA-880C-699A4CFB9AAE}">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44075</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P5" s="2">
         <v>44088</v>
       </c>
@@ -2282,8 +2549,11 @@
       <c r="R5" s="2">
         <v>44090</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="2">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P6" t="s">
         <v>40</v>
       </c>
@@ -2293,8 +2563,11 @@
       <c r="R6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2302,7 +2575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2310,7 +2583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2318,7 +2591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2326,7 +2599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2334,7 +2607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2342,7 +2615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2350,7 +2623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2358,7 +2631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2366,7 +2639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2374,7 +2647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2388,10 +2661,13 @@
         <v>6698.75</v>
       </c>
       <c r="R17">
-        <v>6145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>6827.5</v>
+      </c>
+      <c r="S17">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2399,7 +2675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2407,7 +2683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2415,7 +2691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2429,10 +2705,13 @@
         <v>253</v>
       </c>
       <c r="R21">
-        <v>250.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <v>302.5</v>
+      </c>
+      <c r="S21">
+        <v>214.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2446,10 +2725,13 @@
         <v>186</v>
       </c>
       <c r="R22">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="S22">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2463,10 +2745,13 @@
         <v>1173</v>
       </c>
       <c r="R23">
-        <v>909.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1173</v>
+      </c>
+      <c r="S23">
+        <v>1177.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2474,7 +2759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2488,10 +2773,13 @@
         <v>135</v>
       </c>
       <c r="R25">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="S25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2499,7 +2787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2513,10 +2801,13 @@
         <v>149.5</v>
       </c>
       <c r="R27">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+        <v>143.75</v>
+      </c>
+      <c r="S27">
+        <v>195.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2524,7 +2815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2538,10 +2829,13 @@
         <v>8595.25</v>
       </c>
       <c r="R29">
-        <v>7813.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+        <v>8771.75</v>
+      </c>
+      <c r="S29">
+        <v>9031.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2555,10 +2849,13 @@
         <v>2448.6</v>
       </c>
       <c r="R30">
-        <v>3183.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2377.65</v>
+      </c>
+      <c r="S30">
+        <v>2421.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2566,7 +2863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2574,7 +2871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2588,10 +2885,13 @@
         <v>47.08</v>
       </c>
       <c r="R33">
-        <v>40.659999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+        <v>65.27</v>
+      </c>
+      <c r="S33">
+        <v>50.29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2607,8 +2907,11 @@
       <c r="R34">
         <v>2.52</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2616,7 +2919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2624,7 +2927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2638,10 +2941,13 @@
         <v>35125.339999999997</v>
       </c>
       <c r="R37">
-        <v>37616.15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+        <v>35604.239999999998</v>
+      </c>
+      <c r="S37">
+        <v>37980.410000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2655,10 +2961,13 @@
         <v>14.37</v>
       </c>
       <c r="R38">
-        <v>20.58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+        <v>15.87</v>
+      </c>
+      <c r="S38">
+        <v>37.81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2672,10 +2981,13 @@
         <v>30.6</v>
       </c>
       <c r="R39">
-        <v>22.12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+        <v>21.76</v>
+      </c>
+      <c r="S39">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2685,8 +2997,11 @@
       <c r="P40">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2694,7 +3009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2702,7 +3017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2716,10 +3031,13 @@
         <v>2106.6</v>
       </c>
       <c r="R43">
-        <v>2325.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2012.4</v>
+      </c>
+      <c r="S43">
+        <v>2089.1999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2733,10 +3051,13 @@
         <v>1318.3</v>
       </c>
       <c r="R44">
-        <v>1519.37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1365.05</v>
+      </c>
+      <c r="S44">
+        <v>1512.94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2750,10 +3071,13 @@
         <v>714.75</v>
       </c>
       <c r="R45">
-        <v>901.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+        <v>674.7</v>
+      </c>
+      <c r="S45">
+        <v>668.85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2767,10 +3091,13 @@
         <v>3095.11</v>
       </c>
       <c r="R46">
-        <v>3232.84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3029.26</v>
+      </c>
+      <c r="S46">
+        <v>3051.51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2784,10 +3111,13 @@
         <v>1438.5</v>
       </c>
       <c r="R47">
-        <v>1417.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1372</v>
+      </c>
+      <c r="S47">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2801,10 +3131,13 @@
         <v>33.75</v>
       </c>
       <c r="R48">
-        <v>23.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="S48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2818,10 +3151,13 @@
         <v>189</v>
       </c>
       <c r="R49">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+        <v>262.5</v>
+      </c>
+      <c r="S49">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -2837,8 +3173,11 @@
       <c r="R50">
         <v>10.92</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S50">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -2852,10 +3191,13 @@
         <v>21</v>
       </c>
       <c r="R51">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+        <v>17.5</v>
+      </c>
+      <c r="S51">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -2863,7 +3205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -2879,8 +3221,11 @@
       <c r="R53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2888,7 +3233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2896,7 +3241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -2904,7 +3249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2918,10 +3263,13 @@
         <v>46592.87</v>
       </c>
       <c r="R57">
-        <v>50453.21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+        <v>46854.720000000001</v>
+      </c>
+      <c r="S57">
+        <v>49704.04</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -2935,10 +3283,13 @@
         <v>109.48</v>
       </c>
       <c r="R58">
-        <v>186.83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+        <v>135.66</v>
+      </c>
+      <c r="S58">
+        <v>135.66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2948,8 +3299,14 @@
       <c r="Q59">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R59">
+        <v>1.43</v>
+      </c>
+      <c r="S59">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -2963,10 +3320,10 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="R60">
-        <v>4.9800000000000004</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -2980,10 +3337,13 @@
         <v>343.9</v>
       </c>
       <c r="R61">
-        <v>387.6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+        <v>370.5</v>
+      </c>
+      <c r="S61">
+        <v>381.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -2997,10 +3357,13 @@
         <v>673.38</v>
       </c>
       <c r="R62">
-        <v>1255.4100000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+        <v>576.80999999999995</v>
+      </c>
+      <c r="S62">
+        <v>707.31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -3014,10 +3377,13 @@
         <v>344.85</v>
       </c>
       <c r="R63">
-        <v>364.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+        <v>262.2</v>
+      </c>
+      <c r="S63">
+        <v>324.89999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -3031,10 +3397,13 @@
         <v>2440.16</v>
       </c>
       <c r="R64">
-        <v>2246.2399999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2779.52</v>
+      </c>
+      <c r="S64">
+        <v>2545.1999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -3048,10 +3417,13 @@
         <v>1022</v>
       </c>
       <c r="R65">
-        <v>1095.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1032.5</v>
+      </c>
+      <c r="S65">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -3065,10 +3437,13 @@
         <v>237.5</v>
       </c>
       <c r="R66">
-        <v>237.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="S66">
+        <v>213.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -3082,10 +3457,13 @@
         <v>115.5</v>
       </c>
       <c r="R67">
-        <v>59.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="S67">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -3101,8 +3479,11 @@
       <c r="R68">
         <v>16.38</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S68">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -3110,7 +3491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -3124,10 +3505,13 @@
         <v>5310.99</v>
       </c>
       <c r="R70">
-        <v>5854.74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5502.3</v>
+      </c>
+      <c r="S70">
+        <v>5460.53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -3143,8 +3527,11 @@
       <c r="R71">
         <v>60499.11</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S71">
+        <v>64195.82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -3158,10 +3545,13 @@
         <v>2448.6</v>
       </c>
       <c r="R72">
-        <v>3183.4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2377.65</v>
+      </c>
+      <c r="S72">
+        <v>2421.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -3169,7 +3559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -3177,7 +3567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -3191,10 +3581,13 @@
         <v>42037.87</v>
       </c>
       <c r="R75">
-        <v>44038.84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+        <v>42682.55</v>
+      </c>
+      <c r="S75">
+        <v>45374.38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -3208,10 +3601,13 @@
         <v>16012.64</v>
       </c>
       <c r="R76">
-        <v>16899.46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+        <v>16068.57</v>
+      </c>
+      <c r="S76">
+        <v>16400.34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -3227,8 +3623,11 @@
       <c r="R77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -3242,7 +3641,10 @@
         <v>60499.11</v>
       </c>
       <c r="R78">
-        <v>64121.7</v>
+        <v>61128.77</v>
+      </c>
+      <c r="S78">
+        <v>64195.82</v>
       </c>
     </row>
   </sheetData>
@@ -3252,28 +3654,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1175ADBC-1714-411E-9EA8-59FC18C8ED67}">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44075</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P5" s="2">
         <v>44088</v>
       </c>
@@ -3283,8 +3685,11 @@
       <c r="R5" s="2">
         <v>44090</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="2">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P6" t="s">
         <v>40</v>
       </c>
@@ -3294,8 +3699,11 @@
       <c r="R6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3303,7 +3711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -3311,7 +3719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -3319,7 +3727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -3327,7 +3735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3335,7 +3743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3343,7 +3751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3351,7 +3759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -3359,7 +3767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3367,7 +3775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3375,7 +3783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3389,10 +3797,13 @@
         <v>5359</v>
       </c>
       <c r="R17">
-        <v>4916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5462</v>
+      </c>
+      <c r="S17">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3400,7 +3811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -3408,7 +3819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3416,7 +3827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3430,10 +3841,13 @@
         <v>92</v>
       </c>
       <c r="R21">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="S21">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3447,10 +3861,13 @@
         <v>62</v>
       </c>
       <c r="R22">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="S22">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3464,10 +3881,13 @@
         <v>276</v>
       </c>
       <c r="R23">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="S23">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3475,7 +3895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3489,10 +3909,13 @@
         <v>27</v>
       </c>
       <c r="R25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="S25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3500,7 +3923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3514,10 +3937,13 @@
         <v>26</v>
       </c>
       <c r="R27">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="S27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3525,7 +3951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3539,10 +3965,13 @@
         <v>5842</v>
       </c>
       <c r="R29">
-        <v>5345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5964</v>
+      </c>
+      <c r="S29">
+        <v>6185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -3556,10 +3985,13 @@
         <v>4452</v>
       </c>
       <c r="R30">
-        <v>5788</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <v>4323</v>
+      </c>
+      <c r="S30">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -3567,7 +3999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -3575,7 +4007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3589,10 +4021,13 @@
         <v>44</v>
       </c>
       <c r="R33">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="S33">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -3608,8 +4043,11 @@
       <c r="R34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -3617,7 +4055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -3625,7 +4063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -3639,10 +4077,13 @@
         <v>29284</v>
       </c>
       <c r="R37">
-        <v>31351</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+        <v>29676</v>
+      </c>
+      <c r="S37">
+        <v>31651</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -3656,10 +4097,13 @@
         <v>10</v>
       </c>
       <c r="R38">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="S38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -3675,8 +4119,11 @@
       <c r="R39">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -3686,8 +4133,11 @@
       <c r="P40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -3695,7 +4145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -3703,7 +4153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -3717,10 +4167,13 @@
         <v>1096</v>
       </c>
       <c r="R43">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1047</v>
+      </c>
+      <c r="S43">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -3734,10 +4187,13 @@
         <v>500</v>
       </c>
       <c r="R44">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="S44">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -3751,10 +4207,13 @@
         <v>250</v>
       </c>
       <c r="R45">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="S45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -3768,10 +4227,13 @@
         <v>746</v>
       </c>
       <c r="R46">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+        <v>731</v>
+      </c>
+      <c r="S46">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3785,10 +4247,13 @@
         <v>411</v>
       </c>
       <c r="R47">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+      <c r="S47">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -3802,10 +4267,13 @@
         <v>7</v>
       </c>
       <c r="R48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="S48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3819,10 +4287,13 @@
         <v>54</v>
       </c>
       <c r="R49">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="S49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3838,8 +4309,11 @@
       <c r="R50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3853,10 +4327,13 @@
         <v>6</v>
       </c>
       <c r="R51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="S51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3864,7 +4341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3878,10 +4355,13 @@
         <v>231</v>
       </c>
       <c r="R53">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="S53">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3889,7 +4369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3897,7 +4377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3905,7 +4385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3919,10 +4399,13 @@
         <v>37117</v>
       </c>
       <c r="R57">
-        <v>40739</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+        <v>37276</v>
+      </c>
+      <c r="S57">
+        <v>39506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -3936,10 +4419,13 @@
         <v>92</v>
       </c>
       <c r="R58">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="S58">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -3949,8 +4435,14 @@
       <c r="Q59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -3964,10 +4456,10 @@
         <v>3</v>
       </c>
       <c r="R60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -3981,10 +4473,13 @@
         <v>181</v>
       </c>
       <c r="R61">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="S61">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -3998,10 +4493,13 @@
         <v>258</v>
       </c>
       <c r="R62">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="S62">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -4015,10 +4513,13 @@
         <v>121</v>
       </c>
       <c r="R63">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="S63">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -4032,10 +4533,13 @@
         <v>604</v>
       </c>
       <c r="R64">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+      <c r="S64">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -4049,10 +4553,13 @@
         <v>292</v>
       </c>
       <c r="R65">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="S65">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -4066,10 +4573,13 @@
         <v>50</v>
       </c>
       <c r="R66">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="S66">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -4083,10 +4593,13 @@
         <v>33</v>
       </c>
       <c r="R67">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="S67">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -4102,8 +4615,11 @@
       <c r="R68">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -4111,7 +4627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -4125,10 +4641,13 @@
         <v>1639</v>
       </c>
       <c r="R70">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1688</v>
+      </c>
+      <c r="S70">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -4144,8 +4663,11 @@
       <c r="R71">
         <v>44598</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S71">
+        <v>47394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -4159,10 +4681,13 @@
         <v>4452</v>
       </c>
       <c r="R72">
-        <v>5788</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+        <v>4323</v>
+      </c>
+      <c r="S72">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -4170,7 +4695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -4178,7 +4703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -4192,10 +4717,13 @@
         <v>34819</v>
       </c>
       <c r="R75">
-        <v>36496</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+        <v>35347</v>
+      </c>
+      <c r="S75">
+        <v>37575</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -4209,10 +4737,13 @@
         <v>5096</v>
       </c>
       <c r="R76">
-        <v>5508</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5080</v>
+      </c>
+      <c r="S76">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -4226,10 +4757,13 @@
         <v>231</v>
       </c>
       <c r="R77">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="S77">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -4243,7 +4777,10 @@
         <v>44598</v>
       </c>
       <c r="R78">
-        <v>47996</v>
+        <v>44928</v>
+      </c>
+      <c r="S78">
+        <v>47394</v>
       </c>
     </row>
   </sheetData>
